--- a/pageElement/web/baidu/baidu_elements.xlsx
+++ b/pageElement/web/baidu/baidu_elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="home_page" sheetId="3" r:id="rId1"/>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,6 +108,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -116,7 +131,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +206,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -145,14 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -162,22 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,66 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,55 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,127 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -489,32 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,9 +510,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,7 +569,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,124 +578,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,12 +1023,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.35" customWidth="1"/>
+    <col min="1" max="1" width="34.3518518518519" customWidth="1"/>
     <col min="2" max="2" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/pageElement/web/baidu/baidu_elements.xlsx
+++ b/pageElement/web/baidu/baidu_elements.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>输入框-百度搜索框</t>
+    <t>搜索框-百度搜索框</t>
   </si>
   <si>
     <t>(By.ID,'kw')</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,22 +116,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,82 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +189,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +454,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,30 +519,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -519,11 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,31 +551,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,138 +569,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,7 +1037,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/pageElement/web/baidu/baidu_elements.xlsx
+++ b/pageElement/web/baidu/baidu_elements.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,9 +114,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +152,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -138,24 +190,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -183,14 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -198,21 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,28 +246,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +260,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,7 +338,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,49 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,109 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,80 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,8 +472,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
